--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2242018.749330337</v>
+        <v>2202055.466391144</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914463</v>
+        <v>426806.9758914466</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478708</v>
+        <v>8362709.488478709</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7352260.905404496</v>
+        <v>7352260.905404497</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -682,7 +682,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>88.69432306622667</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>154.9931047012513</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>65.50045431635731</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>28.2881950908333</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>109.4220735607106</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>189.6723709928539</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1008216780092</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>204.7452777895381</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>262.2966887403318</v>
       </c>
       <c r="G11" t="n">
-        <v>9.050758479457686</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.25814436821022</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>3.722778175975149</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>13.08993799274004</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.87134828068413</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>139.0469759406699</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>165.9945133537154</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>20.17002628298154</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8957288909827</v>
+        <v>216.4122078393524</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.1304135414938</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>93.40038367321623</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0020013842972</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
@@ -1900,10 +1900,10 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>102.7890483300237</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,22 +1928,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>28.58965000103544</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>97.02351126992248</v>
       </c>
       <c r="T18" t="n">
         <v>197.3677099213027</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>73.90328094029388</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>85.73493885277887</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>17.43172793015669</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>198.2134319214533</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2165,10 +2165,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>146.6990740087016</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2177,7 +2177,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552442</v>
@@ -2210,7 +2210,7 @@
         <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>127.669712988493</v>
       </c>
       <c r="T21" t="n">
         <v>197.3677099213027</v>
@@ -2219,7 +2219,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8871739987541</v>
+        <v>109.5121432704377</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>72.60201336788828</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>75.46400677165977</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2402,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>54.55879030882561</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>137.0522704600471</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>182.6275281514782</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>73.66757925108449</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>338.8979266973305</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>141.2702656547482</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>20.17002628298154</v>
+        <v>39.25814436821065</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>109.1153289680339</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407327</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>47.23959131629362</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>70.26977904937479</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>325.7283734334442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.762941123735</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>43.76331341951638</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407327</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>183.4401280146808</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>81.02828297723622</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>129.2026523513077</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.33426324323942</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>20.17002628298196</v>
+        <v>43.76331341951638</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>7.522223970621193</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407327</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>23.2427919249673</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>300.5582327799093</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>96.56562026990923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,22 +3347,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>171.9625074323785</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>38.78966489179763</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552442</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>195.8074150145517</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>209.305310927253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>274.1549707244572</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>262.3707622102956</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,22 +3587,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>54.55879030882561</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>74.86757009578068</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407327</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>36.70602979720446</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>73.9173740920687</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>291.4720043929585</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>26.73110927253554</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>104.7629411237351</v>
       </c>
       <c r="H42" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U42" t="n">
-        <v>120.764854730051</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.85446389536651</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>77.82709043755469</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>256.8546158370618</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>27.47589768952045</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J46" t="n">
-        <v>12.80658698357659</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>13.20215654152892</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254.2858631377404</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C2" t="n">
-        <v>254.2858631377404</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D2" t="n">
-        <v>254.2858631377404</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E2" t="n">
-        <v>254.2858631377404</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>247.340362388537</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3248651012614</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>497.7346397818405</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>254.2858631377404</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W2" t="n">
-        <v>254.2858631377404</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X2" t="n">
-        <v>254.2858631377404</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y2" t="n">
-        <v>254.2858631377404</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>391.2152311558108</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="C3" t="n">
-        <v>391.2152311558108</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="D3" t="n">
-        <v>391.2152311558108</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E3" t="n">
-        <v>231.9777761503553</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>85.44321817724031</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>391.2152311558108</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>391.2152311558108</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>391.2152311558108</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4512,7 +4512,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C5" t="n">
-        <v>569.2254314512334</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>540.6514970160482</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>752.3602790325011</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>497.8820279860555</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>278.1872303756613</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>528.5815077689649</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>528.5815077689649</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>528.5815077689649</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>528.5815077689649</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>226.0945550188371</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>226.0945550188371</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1346.319649047701</v>
+        <v>643.2532067163627</v>
       </c>
       <c r="C11" t="n">
-        <v>1346.319649047701</v>
+        <v>643.2532067163627</v>
       </c>
       <c r="D11" t="n">
-        <v>1346.319649047701</v>
+        <v>643.2532067163627</v>
       </c>
       <c r="E11" t="n">
-        <v>960.5313964494565</v>
+        <v>643.2532067163627</v>
       </c>
       <c r="F11" t="n">
-        <v>549.5454916598489</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G11" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
         <v>145.9660485697318</v>
@@ -5047,13 +5047,13 @@
         <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
@@ -5062,31 +5062,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q11" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628163</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628163</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2440.987626628163</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2440.987626628163</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V11" t="n">
-        <v>2109.924739284592</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W11" t="n">
-        <v>2109.924739284592</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="X11" t="n">
-        <v>1736.458981023512</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="Y11" t="n">
-        <v>1346.319649047701</v>
+        <v>643.2532067163627</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>890.3999085640007</v>
+        <v>776.0740854914872</v>
       </c>
       <c r="C12" t="n">
-        <v>715.9468792828737</v>
+        <v>601.6210562103602</v>
       </c>
       <c r="D12" t="n">
-        <v>567.0124696216225</v>
+        <v>452.6866465491088</v>
       </c>
       <c r="E12" t="n">
-        <v>407.775014616167</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="F12" t="n">
-        <v>261.240456643052</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
         <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404814</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N12" t="n">
         <v>1557.865593173221</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.071214692449</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973757</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q12" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2437.227244632229</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577548</v>
+        <v>2276.829513525103</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424717</v>
+        <v>2077.468190372272</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>1849.290686441986</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1614.138578210243</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534487</v>
+        <v>1359.901221482042</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1152.049721276509</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640007</v>
+        <v>944.2894225115551</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.04191212118957</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="C13" t="n">
-        <v>62.04191212118957</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="D13" t="n">
-        <v>62.04191212118957</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256326</v>
+        <v>112.3261649372947</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371199</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.6740222801509</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.6381696807579</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807579</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807579</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="U13" t="n">
-        <v>351.4590821581502</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="V13" t="n">
-        <v>351.4590821581502</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="W13" t="n">
-        <v>62.04191212118957</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="X13" t="n">
-        <v>62.04191212118957</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.04191212118957</v>
+        <v>260.2392585196878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1154.76042100978</v>
+        <v>1323.932475581935</v>
       </c>
       <c r="C14" t="n">
-        <v>1154.76042100978</v>
+        <v>954.9699586415231</v>
       </c>
       <c r="D14" t="n">
-        <v>796.4947224030295</v>
+        <v>596.7042600347727</v>
       </c>
       <c r="E14" t="n">
-        <v>796.4947224030295</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="F14" t="n">
-        <v>796.4947224030295</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G14" t="n">
-        <v>378.3070564736033</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256326</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N14" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O14" t="n">
         <v>2037.925350935285</v>
@@ -5299,31 +5299,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q14" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628163</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.708978695599</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2040.094374027286</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U14" t="n">
-        <v>2040.094374027286</v>
+        <v>2050.166889113129</v>
       </c>
       <c r="V14" t="n">
-        <v>1709.031486683715</v>
+        <v>2050.166889113129</v>
       </c>
       <c r="W14" t="n">
-        <v>1709.031486683715</v>
+        <v>1697.398233843015</v>
       </c>
       <c r="X14" t="n">
-        <v>1541.360261073902</v>
+        <v>1323.932475581935</v>
       </c>
       <c r="Y14" t="n">
-        <v>1541.360261073902</v>
+        <v>1323.932475581935</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722.1845715439326</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7315422628056</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D15" t="n">
-        <v>547.7315422628056</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E15" t="n">
-        <v>388.4940872573501</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F15" t="n">
-        <v>241.9595292842351</v>
+        <v>359.61565291287</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>221.5857653620316</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>114.9862139017799</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
         <v>112.9860412505444</v>
@@ -5369,40 +5369,40 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N15" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O15" t="n">
-        <v>2158.207869599012</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628163</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q15" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577548</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424717</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494432</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534487</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640007</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>351.2209996437973</v>
+        <v>364.6458829583805</v>
       </c>
       <c r="C16" t="n">
-        <v>182.2848167158903</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D16" t="n">
-        <v>182.2848167158903</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E16" t="n">
-        <v>182.2848167158903</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F16" t="n">
-        <v>182.2848167158903</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>182.2848167158903</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
-        <v>93.68771932371199</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L16" t="n">
         <v>206.6297039190408</v>
@@ -5475,13 +5475,13 @@
         <v>640.6381696807579</v>
       </c>
       <c r="W16" t="n">
-        <v>351.2209996437973</v>
+        <v>546.2943477886203</v>
       </c>
       <c r="X16" t="n">
-        <v>351.2209996437973</v>
+        <v>546.2943477886203</v>
       </c>
       <c r="Y16" t="n">
-        <v>351.2209996437973</v>
+        <v>546.2943477886203</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>828.7681742625825</v>
+        <v>776.0479680797255</v>
       </c>
       <c r="C17" t="n">
-        <v>459.8056573221708</v>
+        <v>407.0854511393138</v>
       </c>
       <c r="D17" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E17" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F17" t="n">
         <v>48.81975253256326</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628163</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628163</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2259.708978695599</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T17" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293976</v>
       </c>
       <c r="U17" t="n">
-        <v>1786.314680039168</v>
+        <v>1867.176453748498</v>
       </c>
       <c r="V17" t="n">
-        <v>1786.314680039168</v>
+        <v>1536.113566404927</v>
       </c>
       <c r="W17" t="n">
-        <v>1786.314680039168</v>
+        <v>1536.113566404927</v>
       </c>
       <c r="X17" t="n">
-        <v>1412.848921778088</v>
+        <v>1162.647808143847</v>
       </c>
       <c r="Y17" t="n">
-        <v>1022.709589802277</v>
+        <v>1162.647808143847</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>722.1845715439326</v>
+        <v>784.5787559137638</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628056</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D18" t="n">
-        <v>547.7315422628056</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E18" t="n">
-        <v>388.4940872573501</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256326</v>
@@ -5606,10 +5606,10 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O18" t="n">
-        <v>2158.207869599012</v>
+        <v>1970.071214692449</v>
       </c>
       <c r="P18" t="n">
         <v>2283.899498973757</v>
@@ -5621,25 +5621,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577548</v>
+        <v>2285.334183947379</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424717</v>
+        <v>2085.972860794548</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>1857.795356864263</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1622.64324863252</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534487</v>
+        <v>1368.405891904318</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1160.554391698786</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640007</v>
+        <v>952.7940929338317</v>
       </c>
     </row>
     <row r="19">
@@ -5697,28 +5697,28 @@
         <v>640.6381696807579</v>
       </c>
       <c r="R19" t="n">
-        <v>554.0372213446176</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S19" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T19" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U19" t="n">
-        <v>48.81975253256326</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="V19" t="n">
-        <v>48.81975253256326</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="W19" t="n">
-        <v>48.81975253256326</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="X19" t="n">
-        <v>48.81975253256326</v>
+        <v>123.4695312601328</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256326</v>
+        <v>123.4695312601328</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1383.854442904611</v>
+        <v>863.2017159104723</v>
       </c>
       <c r="C20" t="n">
-        <v>1014.891925964199</v>
+        <v>863.2017159104723</v>
       </c>
       <c r="D20" t="n">
-        <v>1014.891925964199</v>
+        <v>863.2017159104723</v>
       </c>
       <c r="E20" t="n">
-        <v>629.1036733659547</v>
+        <v>477.4134633122281</v>
       </c>
       <c r="F20" t="n">
-        <v>629.1036733659547</v>
+        <v>66.42755852262053</v>
       </c>
       <c r="G20" t="n">
-        <v>210.9160074365284</v>
+        <v>66.42755852262053</v>
       </c>
       <c r="H20" t="n">
-        <v>210.9160074365284</v>
+        <v>66.42755852262053</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256326</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5782,22 +5782,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T20" t="n">
-        <v>1990.402792162842</v>
+        <v>1971.003775293976</v>
       </c>
       <c r="U20" t="n">
-        <v>1736.623098174725</v>
+        <v>1971.003775293976</v>
       </c>
       <c r="V20" t="n">
-        <v>1736.623098174725</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="W20" t="n">
-        <v>1383.854442904611</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="X20" t="n">
-        <v>1383.854442904611</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="Y20" t="n">
-        <v>1383.854442904611</v>
+        <v>1249.801555974594</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439326</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C21" t="n">
-        <v>547.7315422628056</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D21" t="n">
-        <v>547.7315422628056</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E21" t="n">
-        <v>399.5506594257333</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F21" t="n">
-        <v>253.0161014526182</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G21" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
         <v>114.9862139017798</v>
@@ -5831,25 +5831,25 @@
         <v>48.81975253256326</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2772920404814</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.071214692449</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973757</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628163</v>
@@ -5858,25 +5858,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577548</v>
+        <v>2254.378424635692</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424717</v>
+        <v>2055.017101482861</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534487</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640007</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256326</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81975253256326</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256326</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256326</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F22" t="n">
         <v>48.81975253256326</v>
@@ -5937,25 +5937,25 @@
         <v>487.976491396509</v>
       </c>
       <c r="S22" t="n">
-        <v>271.9381101070624</v>
+        <v>487.976491396509</v>
       </c>
       <c r="T22" t="n">
-        <v>48.81975253256326</v>
+        <v>377.3581648607133</v>
       </c>
       <c r="U22" t="n">
-        <v>48.81975253256326</v>
+        <v>377.3581648607133</v>
       </c>
       <c r="V22" t="n">
-        <v>48.81975253256326</v>
+        <v>377.3581648607133</v>
       </c>
       <c r="W22" t="n">
-        <v>48.81975253256326</v>
+        <v>377.3581648607133</v>
       </c>
       <c r="X22" t="n">
-        <v>48.81975253256326</v>
+        <v>377.3581648607133</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256326</v>
+        <v>377.3581648607133</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1228.095788048051</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C23" t="n">
-        <v>1228.095788048051</v>
+        <v>921.8201793867381</v>
       </c>
       <c r="D23" t="n">
-        <v>869.8300894413005</v>
+        <v>921.8201793867381</v>
       </c>
       <c r="E23" t="n">
-        <v>796.4947224030295</v>
+        <v>536.0319267884938</v>
       </c>
       <c r="F23" t="n">
-        <v>796.4947224030295</v>
+        <v>125.0460219988863</v>
       </c>
       <c r="G23" t="n">
-        <v>378.3070564736033</v>
+        <v>125.0460219988863</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697323</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.3079679977594</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540049</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N23" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O23" t="n">
         <v>2037.925350935285</v>
@@ -6010,31 +6010,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q23" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S23" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="T23" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="U23" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="V23" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="W23" t="n">
-        <v>1618.235120023863</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="X23" t="n">
-        <v>1618.235120023863</v>
+        <v>2067.521868367083</v>
       </c>
       <c r="Y23" t="n">
-        <v>1228.095788048051</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439331</v>
+        <v>744.1456658227286</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628061</v>
+        <v>569.6926365416016</v>
       </c>
       <c r="D24" t="n">
-        <v>492.6216530619722</v>
+        <v>420.7582268803504</v>
       </c>
       <c r="E24" t="n">
-        <v>333.3841980565167</v>
+        <v>261.5207718748949</v>
       </c>
       <c r="F24" t="n">
-        <v>186.8496400834017</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404814</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L24" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q24" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R24" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577549</v>
+        <v>2244.901093856344</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2045.539770703513</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494432</v>
+        <v>1817.362266773227</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.249064262689</v>
+        <v>1582.210158541485</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1327.972801813283</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1120.12130160775</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>912.3610028427966</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K25" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L25" t="n">
         <v>206.6297039190408</v>
@@ -6171,28 +6171,28 @@
         <v>640.6381696807579</v>
       </c>
       <c r="R25" t="n">
-        <v>487.976491396509</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S25" t="n">
-        <v>487.976491396509</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T25" t="n">
-        <v>303.5042407384502</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U25" t="n">
-        <v>303.5042407384502</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="V25" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="W25" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437973</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256327</v>
+        <v>123.2314487457799</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1221.758188000646</v>
+        <v>1333.185567244659</v>
       </c>
       <c r="C26" t="n">
-        <v>852.7956710602338</v>
+        <v>964.2230503042476</v>
       </c>
       <c r="D26" t="n">
-        <v>852.7956710602338</v>
+        <v>964.2230503042476</v>
       </c>
       <c r="E26" t="n">
-        <v>467.0074184619895</v>
+        <v>964.2230503042476</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0074184619895</v>
+        <v>553.2371455146401</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256326</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256326</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N26" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O26" t="n">
         <v>2037.925350935285</v>
@@ -6247,31 +6247,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q26" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293976</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U26" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V26" t="n">
-        <v>1574.52684327076</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W26" t="n">
-        <v>1221.758188000646</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X26" t="n">
-        <v>1221.758188000646</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="Y26" t="n">
-        <v>1221.758188000646</v>
+        <v>1719.785407308781</v>
       </c>
     </row>
     <row r="27">
@@ -6281,61 +6281,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439326</v>
+        <v>890.3999085640012</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628056</v>
+        <v>715.9468792828742</v>
       </c>
       <c r="D27" t="n">
-        <v>547.7315422628056</v>
+        <v>567.0124696216229</v>
       </c>
       <c r="E27" t="n">
-        <v>388.4940872573501</v>
+        <v>407.7750146161674</v>
       </c>
       <c r="F27" t="n">
-        <v>241.9595292842351</v>
+        <v>261.2404566430524</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>221.5857653620316</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>114.9862139017799</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>161.1406371339185</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L27" t="n">
-        <v>540.2677802593117</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M27" t="n">
-        <v>1034.670495654874</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.071214692449</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973757</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q27" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577548</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424717</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
         <v>1795.401172494432</v>
@@ -6344,13 +6344,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534487</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
         <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640007</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>159.0372565406783</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C28" t="n">
-        <v>159.0372565406783</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K28" t="n">
-        <v>93.68771932371199</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
@@ -6405,31 +6405,31 @@
         <v>640.6381696807579</v>
       </c>
       <c r="Q28" t="n">
-        <v>602.8128707069465</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R28" t="n">
-        <v>602.8128707069465</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S28" t="n">
-        <v>386.7744894174998</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T28" t="n">
-        <v>159.0372565406783</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U28" t="n">
-        <v>159.0372565406783</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V28" t="n">
-        <v>159.0372565406783</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W28" t="n">
-        <v>159.0372565406783</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X28" t="n">
-        <v>159.0372565406783</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.0372565406783</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>998.0661903063665</v>
+        <v>1664.24845458823</v>
       </c>
       <c r="C29" t="n">
-        <v>629.1036733659547</v>
+        <v>1664.24845458823</v>
       </c>
       <c r="D29" t="n">
-        <v>629.1036733659547</v>
+        <v>1664.24845458823</v>
       </c>
       <c r="E29" t="n">
-        <v>629.1036733659547</v>
+        <v>1278.460201989985</v>
       </c>
       <c r="F29" t="n">
-        <v>629.1036733659547</v>
+        <v>867.4742972003778</v>
       </c>
       <c r="G29" t="n">
-        <v>210.9160074365284</v>
+        <v>449.2866312709515</v>
       </c>
       <c r="H29" t="n">
-        <v>210.9160074365284</v>
+        <v>119.7993273299115</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K29" t="n">
         <v>412.307967997759</v>
@@ -6484,31 +6484,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q29" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S29" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="T29" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="U29" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="W29" t="n">
-        <v>1388.205522282178</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="X29" t="n">
-        <v>1388.205522282178</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="Y29" t="n">
-        <v>998.0661903063665</v>
+        <v>2050.848294652351</v>
       </c>
     </row>
     <row r="30">
@@ -6518,61 +6518,61 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>784.5787559137638</v>
+        <v>722.1845715439326</v>
       </c>
       <c r="C30" t="n">
-        <v>610.1257266326368</v>
+        <v>547.7315422628056</v>
       </c>
       <c r="D30" t="n">
-        <v>461.1913169713854</v>
+        <v>398.7971326015544</v>
       </c>
       <c r="E30" t="n">
-        <v>301.9538619659299</v>
+        <v>239.5596775960989</v>
       </c>
       <c r="F30" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298385</v>
       </c>
       <c r="G30" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K30" t="n">
-        <v>161.1406371339194</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R30" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2222.939999577548</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2023.578676424717</v>
       </c>
       <c r="U30" t="n">
         <v>1795.401172494432</v>
@@ -6581,13 +6581,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1306.011707534487</v>
       </c>
       <c r="X30" t="n">
         <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>890.3999085640007</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K31" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L31" t="n">
         <v>206.6297039190408</v>
@@ -6642,31 +6642,31 @@
         <v>640.6381696807579</v>
       </c>
       <c r="Q31" t="n">
-        <v>602.8128707069465</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R31" t="n">
-        <v>450.1511924226976</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S31" t="n">
-        <v>234.112811133251</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U31" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="V31" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="W31" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256327</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1068.651952631476</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="C32" t="n">
-        <v>699.6894356910645</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="D32" t="n">
-        <v>341.423737084314</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E32" t="n">
-        <v>341.423737084314</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F32" t="n">
-        <v>341.423737084314</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J32" t="n">
         <v>145.9660485697319</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="S32" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="T32" t="n">
-        <v>2040.094374027286</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="U32" t="n">
-        <v>1786.314680039169</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="V32" t="n">
-        <v>1455.251792695598</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="W32" t="n">
-        <v>1455.251792695598</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="X32" t="n">
-        <v>1455.251792695598</v>
+        <v>1998.497360040579</v>
       </c>
       <c r="Y32" t="n">
-        <v>1455.251792695598</v>
+        <v>1608.358028064767</v>
       </c>
     </row>
     <row r="33">
@@ -6755,61 +6755,61 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>722.1845715439326</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>547.7315422628056</v>
       </c>
       <c r="D33" t="n">
-        <v>547.7315422628061</v>
+        <v>398.7971326015544</v>
       </c>
       <c r="E33" t="n">
-        <v>388.4940872573506</v>
+        <v>239.5596775960989</v>
       </c>
       <c r="F33" t="n">
-        <v>241.9595292842356</v>
+        <v>93.02511962298385</v>
       </c>
       <c r="G33" t="n">
-        <v>221.5857653620316</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017799</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404814</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R33" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2222.939999577548</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2023.578676424717</v>
       </c>
       <c r="U33" t="n">
         <v>1795.401172494432</v>
@@ -6818,13 +6818,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1306.011707534487</v>
       </c>
       <c r="X33" t="n">
         <v>1098.160207328955</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>890.3999085640007</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>198.936391944899</v>
+        <v>351.2209996437973</v>
       </c>
       <c r="C34" t="n">
-        <v>198.936391944899</v>
+        <v>351.2209996437973</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256327</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K34" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
@@ -6879,31 +6879,31 @@
         <v>640.6381696807579</v>
       </c>
       <c r="Q34" t="n">
-        <v>602.8128707069465</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R34" t="n">
-        <v>450.1511924226976</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S34" t="n">
-        <v>426.6736248217205</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T34" t="n">
-        <v>198.936391944899</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U34" t="n">
-        <v>198.936391944899</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="V34" t="n">
-        <v>198.936391944899</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="W34" t="n">
-        <v>198.936391944899</v>
+        <v>351.2209996437973</v>
       </c>
       <c r="X34" t="n">
-        <v>198.936391944899</v>
+        <v>351.2209996437973</v>
       </c>
       <c r="Y34" t="n">
-        <v>198.936391944899</v>
+        <v>351.2209996437973</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1203.859608527166</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="C35" t="n">
-        <v>1203.859608527166</v>
+        <v>980.1676108328866</v>
       </c>
       <c r="D35" t="n">
-        <v>845.5939099204151</v>
+        <v>621.901912226136</v>
       </c>
       <c r="E35" t="n">
-        <v>459.8056573221708</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F35" t="n">
-        <v>48.81975253256326</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256326</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256326</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256326</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6964,25 +6964,25 @@
         <v>2440.987626628163</v>
       </c>
       <c r="S35" t="n">
-        <v>2259.708978695599</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="T35" t="n">
-        <v>2259.708978695599</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U35" t="n">
-        <v>2005.929284707482</v>
+        <v>1967.593327971732</v>
       </c>
       <c r="V35" t="n">
-        <v>1674.866397363911</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W35" t="n">
-        <v>1674.866397363911</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="X35" t="n">
-        <v>1301.400639102832</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="Y35" t="n">
-        <v>1203.859608527166</v>
+        <v>1283.761785358048</v>
       </c>
     </row>
     <row r="36">
@@ -6995,19 +6995,19 @@
         <v>722.1845715439326</v>
       </c>
       <c r="C36" t="n">
-        <v>548.4850690869846</v>
+        <v>547.7315422628056</v>
       </c>
       <c r="D36" t="n">
-        <v>399.5506594257333</v>
+        <v>398.7971326015544</v>
       </c>
       <c r="E36" t="n">
-        <v>399.5506594257333</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F36" t="n">
-        <v>253.0161014526182</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G36" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H36" t="n">
         <v>114.9862139017798</v>
@@ -7019,13 +7019,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>161.1406371339185</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L36" t="n">
-        <v>540.2677802593117</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M36" t="n">
-        <v>1034.670495654874</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N36" t="n">
         <v>1557.865593173221</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.81975253256326</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="C37" t="n">
-        <v>48.81975253256326</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="D37" t="n">
-        <v>48.81975253256326</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E37" t="n">
-        <v>48.81975253256326</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256326</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256326</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256326</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I37" t="n">
         <v>48.81975253256326</v>
@@ -7119,28 +7119,28 @@
         <v>640.6381696807579</v>
       </c>
       <c r="R37" t="n">
-        <v>487.976491396509</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S37" t="n">
-        <v>487.976491396509</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T37" t="n">
-        <v>260.2392585196875</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U37" t="n">
-        <v>260.2392585196875</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="V37" t="n">
-        <v>260.2392585196875</v>
+        <v>385.953681474871</v>
       </c>
       <c r="W37" t="n">
-        <v>260.2392585196875</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="X37" t="n">
-        <v>260.2392585196875</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.81975253256326</v>
+        <v>188.1684137834047</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>325.7439653855503</v>
+        <v>1370.556243950357</v>
       </c>
       <c r="C38" t="n">
-        <v>325.7439653855503</v>
+        <v>1001.593727009945</v>
       </c>
       <c r="D38" t="n">
-        <v>325.7439653855503</v>
+        <v>643.3280284031948</v>
       </c>
       <c r="E38" t="n">
-        <v>325.7439653855503</v>
+        <v>643.3280284031948</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>643.3280284031948</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H38" t="n">
         <v>48.81975253256327</v>
@@ -7177,10 +7177,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7192,7 +7192,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
@@ -7201,25 +7201,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2040.094374027286</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U38" t="n">
-        <v>1786.314680039169</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V38" t="n">
-        <v>1455.251792695598</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W38" t="n">
-        <v>1102.483137425484</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X38" t="n">
-        <v>1102.483137425484</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y38" t="n">
-        <v>712.3438054496721</v>
+        <v>1757.156084014479</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C39" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D39" t="n">
-        <v>492.6216530619722</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E39" t="n">
-        <v>333.3841980565167</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F39" t="n">
-        <v>186.8496400834017</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G39" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1406371339194</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L39" t="n">
-        <v>540.2677802593126</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T39" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W39" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X39" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y39" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="40">
@@ -7341,34 +7341,34 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>573.6740222801509</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>602.8128707069465</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>565.7360729319925</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>565.7360729319925</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>337.9988400551709</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U40" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V40" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W40" t="n">
         <v>48.81975253256327</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1253.007143360488</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C41" t="n">
-        <v>1253.007143360488</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D41" t="n">
-        <v>1253.007143360488</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E41" t="n">
-        <v>1253.007143360488</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F41" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G41" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
@@ -7414,16 +7414,16 @@
         <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>1936.838685974173</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V41" t="n">
-        <v>1605.775798630602</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W41" t="n">
-        <v>1253.007143360488</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X41" t="n">
-        <v>1253.007143360488</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y41" t="n">
-        <v>1253.007143360488</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.7751048338188</v>
+        <v>890.3999085640012</v>
       </c>
       <c r="C42" t="n">
-        <v>814.3220755526918</v>
+        <v>715.9468792828742</v>
       </c>
       <c r="D42" t="n">
-        <v>665.3876658914405</v>
+        <v>567.0124696216229</v>
       </c>
       <c r="E42" t="n">
-        <v>506.150210885985</v>
+        <v>407.7750146161674</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>261.2404566430524</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N42" t="n">
         <v>1557.865593173221</v>
@@ -7517,25 +7517,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S42" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T42" t="n">
-        <v>2183.976407531844</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U42" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C43" t="n">
-        <v>2272.051443700257</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D43" t="n">
-        <v>2121.934804287921</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E43" t="n">
-        <v>2121.934804287921</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F43" t="n">
-        <v>2121.934804287921</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G43" t="n">
-        <v>2121.934804287921</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H43" t="n">
-        <v>2041.273729646137</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
-        <v>1901.925068395295</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K43" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L43" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>2440.987626628164</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V43" t="n">
-        <v>2440.987626628164</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W43" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X43" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y43" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1738.539399037014</v>
+        <v>736.5727550803538</v>
       </c>
       <c r="C44" t="n">
-        <v>1369.576882096602</v>
+        <v>736.5727550803538</v>
       </c>
       <c r="D44" t="n">
-        <v>1369.576882096602</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="E44" t="n">
-        <v>1369.576882096602</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F44" t="n">
-        <v>958.5909773069948</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G44" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7678,22 +7678,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T44" t="n">
-        <v>2190.61837996229</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.61837996229</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V44" t="n">
-        <v>2112.005157298094</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W44" t="n">
-        <v>2112.005157298094</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="X44" t="n">
-        <v>1738.539399037014</v>
+        <v>1126.712087056166</v>
       </c>
       <c r="Y44" t="n">
-        <v>1738.539399037014</v>
+        <v>736.5727550803538</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>950.3620754742187</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C45" t="n">
-        <v>775.9090461930917</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D45" t="n">
-        <v>626.9746365318405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E45" t="n">
-        <v>467.737181526385</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F45" t="n">
-        <v>321.20262355327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G45" t="n">
-        <v>183.1727360024316</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
-        <v>76.57318454217989</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
@@ -7736,7 +7736,7 @@
         <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7760,19 +7760,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>2023.578676424718</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1788.426568192975</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1534.189211464774</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1326.337711259241</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>1118.577412494287</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2151.570456591203</v>
+        <v>399.5654251458267</v>
       </c>
       <c r="C46" t="n">
-        <v>2151.570456591203</v>
+        <v>399.5654251458267</v>
       </c>
       <c r="D46" t="n">
-        <v>2001.453817178867</v>
+        <v>399.5654251458267</v>
       </c>
       <c r="E46" t="n">
-        <v>2001.453817178867</v>
+        <v>399.5654251458267</v>
       </c>
       <c r="F46" t="n">
-        <v>2001.453817178867</v>
+        <v>399.5654251458267</v>
       </c>
       <c r="G46" t="n">
-        <v>2001.453817178867</v>
+        <v>399.5654251458267</v>
       </c>
       <c r="H46" t="n">
-        <v>2001.453817178867</v>
+        <v>240.9242726987314</v>
       </c>
       <c r="I46" t="n">
-        <v>1862.105155928026</v>
+        <v>101.57561144789</v>
       </c>
       <c r="J46" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K46" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L46" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M46" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N46" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O46" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P46" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q46" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U46" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V46" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W46" t="n">
-        <v>2151.570456591203</v>
+        <v>399.5654251458267</v>
       </c>
       <c r="X46" t="n">
-        <v>2151.570456591203</v>
+        <v>399.5654251458267</v>
       </c>
       <c r="Y46" t="n">
-        <v>2151.570456591203</v>
+        <v>399.5654251458267</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>243.2069195535496</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8537,13 +8537,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443489</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>289.3053491854091</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854101</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>287.1006199003853</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725698</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854091</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>128.4257434817929</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>203.8252941185852</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617064</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>180.8033201453157</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617064</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K27" t="n">
-        <v>74.42821185443418</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617109</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K30" t="n">
-        <v>74.42821185443509</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617064</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>289.3053491854101</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617064</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>74.42821185443418</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854091</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194305</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K39" t="n">
-        <v>139.2426449029009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K42" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>144.5793570013796</v>
       </c>
       <c r="G11" t="n">
-        <v>404.9550307906743</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.39144430711977</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>53.35061880807839</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>133.3440246538291</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>82.54969974224711</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
@@ -23439,7 +23439,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>112.1949211075664</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>203.7365873247537</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>116.4795623923485</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>9.483521051630248</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>24.9243273811305</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
         <v>137.955174638333</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>193.1226146633748</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>190.7318402791834</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>148.4528487182125</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>116.4795623923484</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>61.77024252613229</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.9286992416434</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,10 +23937,10 @@
         <v>37.44704598407327</v>
       </c>
       <c r="R19" t="n">
-        <v>65.4001226486275</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
         <v>225.4598605480533</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>143.0435644247688</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>19.20502670017714</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10.9460064466993</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>31.12404080756176</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572686549299192</v>
+        <v>115.9477172776156</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>309.3283567043735</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>250.7284241299698</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
         <v>251.2418970482362</v>
@@ -24268,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>92.88627525581315</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>21.74148333600769</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>37.44704598407327</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>42.83233239657505</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>144.9170741010103</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>75.10786257280142</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>186.4819928153867</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>116.4795623923485</v>
+        <v>97.39144430711934</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>39.50014405017848</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>239.047705331088</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>90.20551330555071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>23.51259528396878</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>61.77024252613229</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581362</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552442</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>42.01973253337249</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>144.6813724118009</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>284.8031369188242</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597632</v>
+        <v>0.06542950273690451</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>116.479562392348</v>
+        <v>92.88627525581362</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>141.0932490475912</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>190.6352055515848</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>64.71465899109825</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>68.39969274597632</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>289.6723183861444</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,22 +25235,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.745991555937195</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>118.8554155636033</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617344</v>
@@ -25359,28 +25359,28 @@
         <v>37.44704598407327</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>90.71558332203932</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.279342424841815</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>132.7210750172542</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>151.6350270598364</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597632</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,22 +25475,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>92.88627525581315</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>70.2016422976032</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>114.4290317042019</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
         <v>213.8779974765521</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>212.3699225553129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>115.4040413487529</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>301.0211491975994</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>31.88664755159489</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>105.1308741609317</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,13 +25803,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>77.20027702725778</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>249.9251680325802</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>112.8764848414073</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>38.02889906600396</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,13 +26040,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>39.42171334259683</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>273.3208417950621</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>564624.9788458062</v>
+        <v>564624.9788458064</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>564624.9788458063</v>
+        <v>564624.9788458064</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>564624.9788458062</v>
+        <v>564624.9788458063</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>564624.9788458064</v>
+        <v>564624.9788458063</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>564624.9788458064</v>
+        <v>564624.9788458063</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>564624.9788458066</v>
+        <v>564624.9788458063</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>564624.9788458064</v>
+        <v>564624.9788458063</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>564624.9788458064</v>
+        <v>564624.9788458063</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>564624.9788458063</v>
+        <v>564624.9788458064</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>564624.9788458063</v>
+        <v>564624.9788458064</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>564624.9788458066</v>
+        <v>564624.9788458063</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>564624.9788458066</v>
+        <v>564624.9788458064</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
+        <v>393156.4705133699</v>
+      </c>
+      <c r="F2" t="n">
+        <v>393156.4705133699</v>
+      </c>
+      <c r="G2" t="n">
         <v>393156.4705133697</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>393156.4705133698</v>
-      </c>
-      <c r="G2" t="n">
-        <v>393156.4705133698</v>
-      </c>
-      <c r="H2" t="n">
-        <v>393156.4705133697</v>
       </c>
       <c r="I2" t="n">
         <v>393156.4705133698</v>
       </c>
       <c r="J2" t="n">
-        <v>393156.4705133698</v>
+        <v>393156.4705133699</v>
       </c>
       <c r="K2" t="n">
-        <v>393156.4705133698</v>
+        <v>393156.4705133699</v>
       </c>
       <c r="L2" t="n">
         <v>393156.4705133699</v>
@@ -26349,13 +26349,13 @@
         <v>393156.4705133698</v>
       </c>
       <c r="N2" t="n">
+        <v>393156.47051337</v>
+      </c>
+      <c r="O2" t="n">
+        <v>393156.4705133698</v>
+      </c>
+      <c r="P2" t="n">
         <v>393156.4705133699</v>
-      </c>
-      <c r="O2" t="n">
-        <v>393156.4705133699</v>
-      </c>
-      <c r="P2" t="n">
-        <v>393156.47051337</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.29913278</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109304</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>287492.6387038018</v>
       </c>
       <c r="E4" t="n">
+        <v>9246.781534682701</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9246.781534682701</v>
+      </c>
+      <c r="G4" t="n">
         <v>9246.781534682699</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9246.781534682699</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9246.781534682701</v>
       </c>
       <c r="H4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="I4" t="n">
-        <v>9246.781534682701</v>
+        <v>9246.781534682699</v>
       </c>
       <c r="J4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="K4" t="n">
-        <v>9246.781534682701</v>
+        <v>9246.781534682699</v>
       </c>
       <c r="L4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="M4" t="n">
+        <v>9246.781534682699</v>
+      </c>
+      <c r="N4" t="n">
         <v>9246.781534682701</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9246.781534682699</v>
       </c>
       <c r="O4" t="n">
         <v>9246.781534682699</v>
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="G5" t="n">
         <v>44136.03802033841</v>
@@ -26490,16 +26490,16 @@
         <v>44136.03802033841</v>
       </c>
       <c r="I5" t="n">
+        <v>44136.03802033841</v>
+      </c>
+      <c r="J5" t="n">
         <v>44136.03802033842</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>44136.03802033841</v>
       </c>
-      <c r="K5" t="n">
-        <v>44136.03802033842</v>
-      </c>
       <c r="L5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033841</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033841</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178711.9441524938</v>
+        <v>178711.9441524941</v>
       </c>
       <c r="C6" t="n">
         <v>259481.3756840417</v>
       </c>
       <c r="D6" t="n">
-        <v>259481.3756840417</v>
+        <v>259481.3756840419</v>
       </c>
       <c r="E6" t="n">
-        <v>-29661.64817443139</v>
+        <v>-36630.57274816355</v>
       </c>
       <c r="F6" t="n">
-        <v>339773.6509583486</v>
+        <v>332804.7263846165</v>
       </c>
       <c r="G6" t="n">
-        <v>339773.6509583486</v>
+        <v>332804.7263846163</v>
       </c>
       <c r="H6" t="n">
-        <v>339773.6509583486</v>
+        <v>332804.7263846164</v>
       </c>
       <c r="I6" t="n">
-        <v>339773.6509583487</v>
+        <v>332804.7263846164</v>
       </c>
       <c r="J6" t="n">
-        <v>276713.7083592425</v>
+        <v>269744.7837855103</v>
       </c>
       <c r="K6" t="n">
-        <v>339773.6509583486</v>
+        <v>332804.7263846165</v>
       </c>
       <c r="L6" t="n">
-        <v>339773.6509583488</v>
+        <v>332804.7263846165</v>
       </c>
       <c r="M6" t="n">
-        <v>247759.4056772557</v>
+        <v>240790.4811035233</v>
       </c>
       <c r="N6" t="n">
-        <v>339773.6509583488</v>
+        <v>332804.7263846166</v>
       </c>
       <c r="O6" t="n">
-        <v>339773.6509583488</v>
+        <v>332804.7263846165</v>
       </c>
       <c r="P6" t="n">
-        <v>339773.6509583489</v>
+        <v>332804.7263846166</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>322.6158759445107</v>
@@ -26773,7 +26773,7 @@
         <v>322.6158759445107</v>
       </c>
       <c r="N3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="O3" t="n">
         <v>322.6158759445108</v>
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.2469066570408</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
-        <v>610.2469066570408</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="G4" t="n">
         <v>610.2469066570408</v>
@@ -26810,16 +26810,16 @@
         <v>610.2469066570408</v>
       </c>
       <c r="I4" t="n">
+        <v>610.2469066570408</v>
+      </c>
+      <c r="J4" t="n">
         <v>610.2469066570409</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>610.2469066570408</v>
       </c>
-      <c r="K4" t="n">
-        <v>610.2469066570409</v>
-      </c>
       <c r="L4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.2469066570408</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570408</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793817</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793817</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793817</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>162.6513298416098</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>246.9221439951795</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>11.54007894861604</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>71.84306284685333</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27514,13 +27514,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27584,10 +27584,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>326.3948465298496</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>288.9009862035136</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>57.11111008915677</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>36.26901108812089</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9950278861221591</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27994,10 +27994,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>1.027707413939339</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H11" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
       </c>
       <c r="L11" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P11" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
@@ -31861,19 +31861,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858958</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T12" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223817</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501259</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H38" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K38" t="n">
         <v>164.9766803203078</v>
       </c>
       <c r="L38" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M38" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O38" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P38" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q38" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S38" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H39" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K39" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L39" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M39" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N39" t="n">
         <v>180.479234222958</v>
@@ -33994,19 +33994,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R39" t="n">
-        <v>43.08443716858958</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T39" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K40" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L40" t="n">
-        <v>86.49278746223817</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P40" t="n">
-        <v>70.36199366501259</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R40" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T40" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>104.6525397736754</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L11" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P11" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
         <v>130.0651205780292</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846579</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009465</v>
+        <v>48.64100594280286</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>338.4428713250338</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N13" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O13" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N15" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250338</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>126.9612417926712</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
         <v>158.6748764185921</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.81443304846579</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009465</v>
@@ -36214,13 +36214,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
-        <v>226.3322895077434</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891365</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846579</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009465</v>
       </c>
       <c r="L24" t="n">
-        <v>192.9196850695265</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
         <v>499.3966822177399</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891365</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.81443304846579</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>48.6410059428021</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.81443304846579</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>48.641005942803</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891365</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.81443304846579</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009465</v>
@@ -37159,7 +37159,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891365</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>64.81443304846579</v>
       </c>
       <c r="K36" t="n">
-        <v>48.6410059428021</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
@@ -37396,7 +37396,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250338</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L38" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N38" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O38" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P38" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q38" t="n">
         <v>130.0651205780292</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K39" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
         <v>528.4798964831782</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M40" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N40" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O40" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>98.12757175471585</v>
       </c>
       <c r="K41" t="n">
-        <v>269.0322418464915</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L41" t="n">
         <v>386.5629597537834</v>
@@ -37797,7 +37797,7 @@
         <v>369.2231584563177</v>
       </c>
       <c r="P41" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329588</v>
       </c>
       <c r="Q41" t="n">
         <v>130.0651205780292</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37870,7 +37870,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -38104,10 +38104,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M45" t="n">
-        <v>309.3596570595963</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
